--- a/dicionario de dados.xlsx
+++ b/dicionario de dados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="295">
   <si>
     <t>1. departamento</t>
   </si>
@@ -607,6 +607,300 @@
   </si>
   <si>
     <t>esse campo e destinado a guardar a matricula do aluno</t>
+  </si>
+  <si>
+    <t>campo para verificar se o aluno entregou ou não a cerdidao de nascimento</t>
+  </si>
+  <si>
+    <t>campo para verificar se o aluno entregou ou não o comprovante de escolarida</t>
+  </si>
+  <si>
+    <t>campo para verificar se o aluno entregou ou não o historico escolar</t>
+  </si>
+  <si>
+    <t>campo para verificar se o aluno entregou ou não o comporvante de residencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registra o Status do aluno </t>
+  </si>
+  <si>
+    <t>campo utilizado para registar observaçoes sobre a vida escolar do aluno</t>
+  </si>
+  <si>
+    <t>campo usado para identificar cada desempenho do aluno , esse campo dever ser único</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references aluno(codAluno)</t>
+  </si>
+  <si>
+    <t>esse campo e obrigatorio e deve existir previamente na tabela de alunos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esse campo serve para descrever o desempenho do aluno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seve para armazenar a quantidade de faltas do aluno durante o ensino médio caso o mesmo esteja matriculado </t>
+  </si>
+  <si>
+    <t>seve  para registrar o trimestre em que o aluno esta matriculado</t>
+  </si>
+  <si>
+    <t>campo usado para identificar a escolariadade o do aluno , esse campo dever ser único</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server para registrar em qual serie o aluno, no ensino medio </t>
+  </si>
+  <si>
+    <t>armazena o nome da escola do aluno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registra em qual municipio a escola foi costruida </t>
+  </si>
+  <si>
+    <t>serve para armazenar algum problema que o aluno deve ou tem na escola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server para relatro o ano </t>
+  </si>
+  <si>
+    <t>esse campo server para identificar se ao aluno estuda ou estoudou no EJA</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references professor (codProfessor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo serve para identificar a que professor pertence a formação cadastrada , esse campo deve existir previamente na tabela professor e não pode ficar vazio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo para identificar uam formção com única , esse campo não se repete </t>
+  </si>
+  <si>
+    <t>serve para listar o tipo de formação que vai ser cadastrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sever para registra o nome do curso da formação cadastrada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">serve para regristra o nome da instituição de ensino que promoveu o curso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indica a siução atual do curso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">armazena em que ano ser concluido ou que foi concluido o curso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indica em que ano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">esse campo server para identificar cada curso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo server para armazenar o nome do curso </t>
+  </si>
+  <si>
+    <t>esse campo server para armazenar o numerdo de identificaçao do curso perante ao MEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo serve para diferenciar o a disciplina , esse campo não se repete e não pode ser deixado em branco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">esse campo idica a que curso pertence tal disciplina esse ,campo não pode ficar vazio , e esse campo deve previametne existir na tabela curso </t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references curso(codCurso)</t>
+  </si>
+  <si>
+    <t>serve para armazenar o nome da disciplina</t>
+  </si>
+  <si>
+    <t>esse campo serve para armzenar a quantidade de horas da disciplina</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY , FOREIGN KEY references disciplina (codDisciplina)</t>
+  </si>
+  <si>
+    <t>esse campo server para identificar uam disciplina , esse campo deve existir previamente em na tabela codDisciplina</t>
+  </si>
+  <si>
+    <t>campo serve para identificar o periodo letivo desse disciplina , Ano</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references ementa (codEmenta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server para marca uma base tecnologia como única , não pode ficar em branco , </t>
+  </si>
+  <si>
+    <t>campo serve para identificar a qual ementa esse base tecnologica pertence , esse campo deve existir previamente na tabela ementa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nesse campo deve ser descrito a base tecnologica </t>
+  </si>
+  <si>
+    <t>campo serve para identificar a qual ementa esse habilidade pertence , esse campo deve existir previamente na tabela ementa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server para marca uma habilidade como única , não pode ficar em branco , </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nesse campo deve ser descrito as habilidade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">server para marca competencia como única , não pode ficar em branco , </t>
+  </si>
+  <si>
+    <t>nesse campo deve ser descrito as competencias</t>
+  </si>
+  <si>
+    <t>campo de chave primaria , assim como todo campo o campo de chave primaria tem po objetivo fazer com que campo seja único</t>
+  </si>
+  <si>
+    <t>seve para regisstrar o titulo de um livro</t>
+  </si>
+  <si>
+    <t>serve para registra o autor de um livro</t>
+  </si>
+  <si>
+    <t>seve para registrar a ediçao de um livro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serve para registra a editora do livro </t>
+  </si>
+  <si>
+    <t>serve pra regisra o local onde se encontra a editora</t>
+  </si>
+  <si>
+    <t>ano de lançametno do livro</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references bibilicografia (codBibliografia)</t>
+  </si>
+  <si>
+    <t>serve para armzenar as chaves de ementa</t>
+  </si>
+  <si>
+    <t>serve para armzenar as chaves de bibliografia</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references curso (codCurso)</t>
+  </si>
+  <si>
+    <t>campo serve para identificar qual o cusrso que a turma cadastrada pertence</t>
+  </si>
+  <si>
+    <t>campo chave primaria, usado para identificação de uma turma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server paraguardar o nome da turma </t>
+  </si>
+  <si>
+    <t>server para identificar o turno que uma turma pertence</t>
+  </si>
+  <si>
+    <t>server para armazenar  a data que a turma ira iniciar</t>
+  </si>
+  <si>
+    <t>server para armazenar  a data que a turma ira fnalizar</t>
+  </si>
+  <si>
+    <t>indica o status atual da turma</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references aluno (codAluno)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references Turma(codTurma)</t>
+  </si>
+  <si>
+    <t>serve para idntificar uma matricula como única assim com todo campo de chave primaria esse não foge a regra</t>
+  </si>
+  <si>
+    <t>esse campo serve para identicar em qual turma sera efeuada matricula , esse campo deve existir na tabela turma previamente</t>
+  </si>
+  <si>
+    <t>esse campo serve para identicar o   aluno que efetuara matricula , esse campo deve existir na tabela aluno previamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esse campo armazena a data que uma matricula foi efetuada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">serve para registrar o ano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">serve para regisrar o modulo que o aluno sera matriculado </t>
+  </si>
+  <si>
+    <t>seve  para identificar o status da matriula</t>
+  </si>
+  <si>
+    <t>campo chave primaria serve para identificar uma hora como única</t>
+  </si>
+  <si>
+    <t>seve para armazenar horas</t>
+  </si>
+  <si>
+    <t>serve para identificar um dia como único assim como chave primaria deve ser</t>
+  </si>
+  <si>
+    <t>serve para armazenar o nome de umdia</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references dia(codDia)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references hora(codHora)</t>
+  </si>
+  <si>
+    <t>serve para identificar um como único um dia e hora</t>
+  </si>
+  <si>
+    <t>esse campo deve ser existir previamente na tabela dia</t>
+  </si>
+  <si>
+    <t>esse campo deve ser existir previamente na tabela hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esse campo serve para identificar um laboratorio como único , esse campo e auto complemento , e não pode ser deixando em branco  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seve para armazenar o nome do laboratorio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">serve para armazenar o numero do laboratorio </t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references professor(codProfessor)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references disciplina(codDisciplina)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references lab(codLab)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY references aula (codAula)</t>
+  </si>
+  <si>
+    <t>serve para armazenar a data que sera a aula</t>
+  </si>
+  <si>
+    <t>esse campo deve ser existir previamente na tabela diahora</t>
+  </si>
+  <si>
+    <t>esse campo deve ser existir previamente na tabela lab</t>
+  </si>
+  <si>
+    <t>esse campo deve ser existir previamente na tabela disciplina</t>
+  </si>
+  <si>
+    <t>esse campo deve ser existir previamente na tabela turma</t>
+  </si>
+  <si>
+    <t>esse campo deve ser existir previamente na tabela professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server para identificar o codigo da aula </t>
   </si>
 </sst>
 </file>
@@ -972,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,7 +2104,9 @@
       <c r="D67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -1825,9 +2121,11 @@
       <c r="D68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E68" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -1840,7 +2138,9 @@
       <c r="D69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -1855,9 +2155,11 @@
       <c r="D70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E70" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -1870,9 +2172,11 @@
       <c r="D71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E71" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -1885,14 +2189,16 @@
       <c r="D72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
@@ -1922,9 +2228,11 @@
       <c r="D77" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E77" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>66</v>
       </c>
@@ -1935,9 +2243,11 @@
         <v>8</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -1952,7 +2262,9 @@
       <c r="D79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -1967,7 +2279,9 @@
       <c r="D80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
@@ -1982,9 +2296,11 @@
       <c r="D81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E81" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -1997,9 +2313,11 @@
       <c r="D82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E82" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -2012,7 +2330,9 @@
       <c r="D83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
@@ -2027,14 +2347,16 @@
       <c r="D84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="86" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>1</v>
       </c>
@@ -2064,9 +2386,11 @@
       <c r="D89" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E89" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>66</v>
       </c>
@@ -2077,9 +2401,11 @@
         <v>8</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
@@ -2094,9 +2420,11 @@
       <c r="D91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E91" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>89</v>
       </c>
@@ -2109,7 +2437,9 @@
       <c r="D92" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
@@ -2124,14 +2454,16 @@
       <c r="D93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -2148,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>64</v>
       </c>
@@ -2159,9 +2491,11 @@
         <v>8</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
@@ -2176,7 +2510,9 @@
       <c r="D99" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
@@ -2191,7 +2527,9 @@
       <c r="D100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -2206,9 +2544,11 @@
       <c r="D101" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E101" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>94</v>
       </c>
@@ -2221,9 +2561,11 @@
       <c r="D102" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E102" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>95</v>
       </c>
@@ -2236,7 +2578,9 @@
       <c r="D103" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
@@ -2251,7 +2595,9 @@
       <c r="D104" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
@@ -2266,14 +2612,16 @@
       <c r="D105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>1</v>
       </c>
@@ -2290,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>99</v>
       </c>
@@ -2303,7 +2651,9 @@
       <c r="D110" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
@@ -2318,9 +2668,11 @@
       <c r="D111" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E111" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>100</v>
       </c>
@@ -2333,14 +2685,16 @@
       <c r="D112" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="114" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -2357,7 +2711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
@@ -2370,9 +2724,11 @@
       <c r="D117" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>99</v>
       </c>
@@ -2383,9 +2739,11 @@
         <v>11</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="3"/>
+        <v>230</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
@@ -2397,10 +2755,10 @@
       <c r="C119" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
@@ -2415,14 +2773,16 @@
       <c r="D120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="122" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>1</v>
       </c>
@@ -2439,7 +2799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>104</v>
       </c>
@@ -2450,9 +2810,11 @@
         <v>8</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
@@ -2467,14 +2829,16 @@
       <c r="D126" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="128" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>1</v>
       </c>
@@ -2504,9 +2868,11 @@
       <c r="D131" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E131" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>104</v>
       </c>
@@ -2517,9 +2883,11 @@
         <v>8</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
@@ -2534,14 +2902,16 @@
       <c r="D133" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="135" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>1</v>
       </c>
@@ -2571,9 +2941,11 @@
       <c r="D138" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E138" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>104</v>
       </c>
@@ -2584,9 +2956,11 @@
         <v>8</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
@@ -2601,14 +2975,16 @@
       <c r="D140" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="142" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>1</v>
       </c>
@@ -2638,9 +3014,11 @@
       <c r="D145" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E145" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>104</v>
       </c>
@@ -2651,9 +3029,11 @@
         <v>8</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
@@ -2668,14 +3048,16 @@
       <c r="D147" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="149" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>1</v>
       </c>
@@ -2692,7 +3074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>116</v>
       </c>
@@ -2705,7 +3087,9 @@
       <c r="D152" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
@@ -2720,7 +3104,9 @@
       <c r="D153" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
@@ -2735,7 +3121,9 @@
       <c r="D154" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
@@ -2750,7 +3138,9 @@
       <c r="D155" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
@@ -2765,9 +3155,11 @@
       <c r="D156" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E156" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>121</v>
       </c>
@@ -2780,9 +3172,11 @@
       <c r="D157" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E157" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>122</v>
       </c>
@@ -2795,14 +3189,16 @@
       <c r="D158" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E158" s="3"/>
+      <c r="E158" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="160" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>1</v>
       </c>
@@ -2830,11 +3226,13 @@
         <v>8</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>116</v>
       </c>
@@ -2845,16 +3243,18 @@
         <v>8</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E164" s="3"/>
+        <v>252</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="166" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>1</v>
       </c>
@@ -2871,7 +3271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>126</v>
       </c>
@@ -2884,9 +3284,11 @@
       <c r="D169" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E169" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>99</v>
       </c>
@@ -2897,11 +3299,13 @@
         <v>8</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>19</v>
       </c>
@@ -2914,9 +3318,11 @@
       <c r="D171" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E171" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>127</v>
       </c>
@@ -2929,7 +3335,9 @@
       <c r="D172" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E172" s="3"/>
+      <c r="E172" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
@@ -2944,9 +3352,11 @@
       <c r="D173" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E173" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>130</v>
       </c>
@@ -2959,9 +3369,11 @@
       <c r="D174" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E174" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>73</v>
       </c>
@@ -2974,14 +3386,16 @@
       <c r="D175" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E175" s="3"/>
+      <c r="E175" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="177" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>1</v>
       </c>
@@ -2998,7 +3412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>132</v>
       </c>
@@ -3011,9 +3425,11 @@
       <c r="D180" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E180" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>126</v>
       </c>
@@ -3024,11 +3440,13 @@
         <v>8</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>66</v>
       </c>
@@ -3039,9 +3457,11 @@
         <v>8</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
@@ -3053,12 +3473,12 @@
       <c r="C183" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D183" s="3"/>
+      <c r="E183" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>84</v>
       </c>
@@ -3071,9 +3491,11 @@
       <c r="D184" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E184" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>134</v>
       </c>
@@ -3086,7 +3508,9 @@
       <c r="D185" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E185" s="3"/>
+      <c r="E185" s="3" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
@@ -3101,14 +3525,16 @@
       <c r="D186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E186" s="3"/>
+      <c r="E186" s="3" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="188" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>1</v>
       </c>
@@ -3125,7 +3551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>137</v>
       </c>
@@ -3138,7 +3564,9 @@
       <c r="D191" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E191" s="3"/>
+      <c r="E191" s="3" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
@@ -3153,14 +3581,16 @@
       <c r="D192" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E192" s="3"/>
+      <c r="E192" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="194" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>1</v>
       </c>
@@ -3190,7 +3620,9 @@
       <c r="D197" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E197" s="3"/>
+      <c r="E197" s="3" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="198" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
@@ -3205,14 +3637,16 @@
       <c r="D198" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E198" s="3"/>
+      <c r="E198" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="200" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>1</v>
       </c>
@@ -3229,7 +3663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>143</v>
       </c>
@@ -3242,9 +3676,11 @@
       <c r="D203" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E203" s="3"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E203" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>140</v>
       </c>
@@ -3255,11 +3691,13 @@
         <v>11</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E204" s="3"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>137</v>
       </c>
@@ -3270,16 +3708,18 @@
         <v>11</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E205" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="207" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>1</v>
       </c>
@@ -3296,7 +3736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>145</v>
       </c>
@@ -3309,7 +3749,9 @@
       <c r="D210" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E210" s="3"/>
+      <c r="E210" s="3" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="211" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -3321,12 +3763,12 @@
       <c r="C211" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D211" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E211" s="3"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D211" s="3"/>
+      <c r="E211" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>146</v>
       </c>
@@ -3336,17 +3778,17 @@
       <c r="C212" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="214" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>1</v>
       </c>
@@ -3363,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>148</v>
       </c>
@@ -3376,7 +3818,9 @@
       <c r="D217" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E217" s="3"/>
+      <c r="E217" s="3" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
@@ -3389,9 +3833,11 @@
         <v>8</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E218" s="3"/>
+        <v>284</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
@@ -3404,9 +3850,11 @@
         <v>8</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E219" s="3"/>
+        <v>264</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="220" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
@@ -3419,11 +3867,13 @@
         <v>8</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E220" s="3"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>145</v>
       </c>
@@ -3434,9 +3884,11 @@
         <v>8</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E221" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="222" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
@@ -3449,11 +3901,13 @@
         <v>8</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E222" s="3"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>149</v>
       </c>
@@ -3466,9 +3920,13 @@
       <c r="D223" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E223" s="3" t="s">
+        <v>288</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
